--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51746DB9-CCAC-4A24-B9FB-243688F4799C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA8B9F-EF95-4D8D-9D73-E16C9A8B6FBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Balance</t>
   </si>
@@ -34,13 +40,49 @@
   </si>
   <si>
     <t>Paypal start</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>Glove Case Mil spec up</t>
+  </si>
+  <si>
+    <t>Nova Gila</t>
+  </si>
+  <si>
+    <t>p2k</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Negev Lionfish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +90,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,13 +120,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,15 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -367,15 +427,211 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>-1.53</v>
+      </c>
+      <c r="D4">
+        <v>-3.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <f>10-S9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(N13:N23)</f>
+        <v>0.10516999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f>SUM(M13:M22)</f>
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N13">
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>0.3</v>
+      </c>
+      <c r="N14">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>0.31</v>
+      </c>
+      <c r="N16">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>0.31</v>
+      </c>
+      <c r="N17">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>0.31</v>
+      </c>
+      <c r="N18">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>0.31</v>
+      </c>
+      <c r="N19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>0.31</v>
+      </c>
+      <c r="N20">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N21">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>0.3</v>
+      </c>
+      <c r="N22">
+        <v>0.13400000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA8B9F-EF95-4D8D-9D73-E16C9A8B6FBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D876818-7F49-4383-84A1-506357039FC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Balance</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Negev Lionfish</t>
+  </si>
+  <si>
+    <t>Usp</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A2:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +429,22 @@
       <c r="B2">
         <v>7.08</v>
       </c>
+      <c r="C2">
+        <f>B2+C4</f>
+        <v>5.55</v>
+      </c>
+      <c r="D2">
+        <f>C2+D4</f>
+        <v>2.52</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:F2" si="0">D2+E4</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.98000000000000009</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -445,6 +464,12 @@
       <c r="D4">
         <v>-3.03</v>
       </c>
+      <c r="E4">
+        <v>-2.42</v>
+      </c>
+      <c r="F4">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -452,6 +477,12 @@
       </c>
       <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D876818-7F49-4383-84A1-506357039FC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBBFAD-F785-4903-BAA0-0DBE23D918C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A2:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +470,9 @@
       <c r="F4">
         <v>0.88</v>
       </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBBFAD-F785-4903-BAA0-0DBE23D918C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8738B-8003-4213-90E9-225CDAEDB5C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Balance</t>
   </si>
@@ -42,50 +42,32 @@
     <t>Paypal start</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
     <t>Glove Case Mil spec up</t>
   </si>
   <si>
     <t>Nova Gila</t>
   </si>
   <si>
-    <t>p2k</t>
-  </si>
-  <si>
-    <t>XM</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
     <t>Negev Lionfish</t>
   </si>
   <si>
     <t>Usp</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,25 +75,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,16 +93,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S22"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,31 +389,12 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>7.08</v>
-      </c>
-      <c r="C2">
-        <f>B2+C4</f>
-        <v>5.55</v>
-      </c>
-      <c r="D2">
-        <f>C2+D4</f>
-        <v>2.52</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:F2" si="0">D2+E4</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.98000000000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -454,10 +402,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>-1.53</v>
       </c>
@@ -467,201 +418,45 @@
       <c r="E4">
         <v>-2.42</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>0.88</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>SUM(C7:K7)</f>
+        <v>-6.1</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <f>10-S9</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <f>AVERAGE(N13:N23)</f>
-        <v>0.10516999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <f>SUM(M13:M22)</f>
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N13">
-        <v>9.0800000000000006E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>0.3</v>
-      </c>
-      <c r="N14">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>0.3</v>
-      </c>
-      <c r="N15">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>0.31</v>
-      </c>
-      <c r="N16">
-        <v>8.8700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>0.31</v>
-      </c>
-      <c r="N17">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K18">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>0.31</v>
-      </c>
-      <c r="N18">
-        <v>9.8699999999999996E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K19">
-        <v>7</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>0.31</v>
-      </c>
-      <c r="N19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <v>8</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>0.31</v>
-      </c>
-      <c r="N20">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N21">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>0.3</v>
-      </c>
-      <c r="N22">
-        <v>0.13400000000000001</v>
+      <c r="C7">
+        <f>C4+C6</f>
+        <v>-0.65</v>
+      </c>
+      <c r="D7">
+        <f>D4+D6</f>
+        <v>-3.03</v>
+      </c>
+      <c r="E7">
+        <f>E4+E6</f>
+        <v>-2.42</v>
       </c>
     </row>
   </sheetData>

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8738B-8003-4213-90E9-225CDAEDB5C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D7964-276D-42F8-8EF4-797469F94D7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Balance</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>tot</t>
+  </si>
+  <si>
+    <t>M4a4 Dark Blos</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,12 +392,12 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -405,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -418,8 +421,11 @@
       <c r="E4">
         <v>-2.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -429,8 +435,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -438,7 +447,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(C7:K7)</f>
         <v>-6.1</v>

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D7964-276D-42F8-8EF4-797469F94D7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F5E2F-1B11-4DEF-80B9-4F10E8001557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Balance</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>M4a4 Dark Blos</t>
+  </si>
+  <si>
+    <t>4x mw rat rod and pp embargo</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,12 +395,12 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -408,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -424,8 +427,12 @@
       <c r="F4">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>-1.62*5</f>
+        <v>-8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -438,8 +445,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -447,7 +457,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(C7:K7)</f>
         <v>-6.1</v>

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F5E2F-1B11-4DEF-80B9-4F10E8001557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D4D35-2640-404D-A78C-9D4B8E4B61AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Balance</t>
   </si>
@@ -67,13 +68,74 @@
   </si>
   <si>
     <t>4x mw rat rod and pp embargo</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Buy Price</t>
+  </si>
+  <si>
+    <t>Want to sell at</t>
+  </si>
+  <si>
+    <t>Sold Price</t>
+  </si>
+  <si>
+    <t>MW Shat-Web Scar - Torn</t>
+  </si>
+  <si>
+    <t>MW Shat-Web Nova - Plume</t>
+  </si>
+  <si>
+    <t>MW Shat-Web MP5 - Acid</t>
+  </si>
+  <si>
+    <t>MW Shat-Web M249 - Warbird</t>
+  </si>
+  <si>
+    <t>From Discontinued Case These will be used in tradeups as they have nice floats</t>
+  </si>
+  <si>
+    <t>Minimun Sell Value</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Sold Price after Cut</t>
+  </si>
+  <si>
+    <t>Dick Stacy Foil</t>
+  </si>
+  <si>
+    <t>MW Shat-Web DualB - Balance</t>
+  </si>
+  <si>
+    <t>One of a kind, likely discontinued player</t>
+  </si>
+  <si>
+    <t>Expected Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,15 +144,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,15 +165,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +568,401 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CECA6F-12B3-499F-93A2-28F63E2E8B8A}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(B4:B19)</f>
+        <v>21.37</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM(C4:C19)</f>
+        <v>24.575499999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(D4:D19)</f>
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM(E4:E19)</f>
+        <v>1.6543478260869571</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(F4:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <f>SUM(H4:H19)</f>
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4*1.15</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E4" s="1">
+        <f>(D4/1.15)-B4</f>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1">
+        <f>F4/1.15</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4-B4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C13" si="0">B5*1.15</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="1">(D5/1.15)-B5</f>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="2">F5/1.15</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="3">G5-B5</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8" si="4">G8-B8</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6086956521739146E-2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2774999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4978260869565223</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8669999999999991</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9449999999999994</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D4D35-2640-404D-A78C-9D4B8E4B61AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2458D1-AB09-42A0-B4D8-C19A20BD815C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Inventory" sheetId="2" r:id="rId2"/>
+    <sheet name="Inventory" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,44 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
-  <si>
-    <t>Balance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Details</t>
   </si>
   <si>
-    <t>Paypal start</t>
-  </si>
-  <si>
-    <t>Glove Case Mil spec up</t>
-  </si>
-  <si>
-    <t>Nova Gila</t>
-  </si>
-  <si>
-    <t>Negev Lionfish</t>
-  </si>
-  <si>
-    <t>Usp</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>tot</t>
-  </si>
-  <si>
-    <t>M4a4 Dark Blos</t>
-  </si>
-  <si>
-    <t>4x mw rat rod and pp embargo</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -79,9 +45,6 @@
     <t>Want to sell at</t>
   </si>
   <si>
-    <t>Sold Price</t>
-  </si>
-  <si>
     <t>MW Shat-Web Scar - Torn</t>
   </si>
   <si>
@@ -100,25 +63,91 @@
     <t>Minimun Sell Value</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Profit</t>
   </si>
   <si>
     <t>Sold Price after Cut</t>
   </si>
   <si>
-    <t>Dick Stacy Foil</t>
-  </si>
-  <si>
     <t>MW Shat-Web DualB - Balance</t>
   </si>
   <si>
     <t>One of a kind, likely discontinued player</t>
   </si>
   <si>
-    <t>Expected Profit</t>
+    <t>AK Redline</t>
+  </si>
+  <si>
+    <t>AK Baroque 0.069</t>
+  </si>
+  <si>
+    <t>AK Baroque 0.055</t>
+  </si>
+  <si>
+    <t>Stat Trak SSG08 Slashed</t>
+  </si>
+  <si>
+    <t>MP9 Stained Glass</t>
+  </si>
+  <si>
+    <t>Web Stuck Holo</t>
+  </si>
+  <si>
+    <t>Money Input</t>
+  </si>
+  <si>
+    <t>Play Skin</t>
+  </si>
+  <si>
+    <t>Canals Investment</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/SCAR-20%20%7C%20Torn%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/Nova%20%7C%20Plume%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/MP5-SD%20%7C%20Acid%20Wash%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/M249%20%7C%20Warbird%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/Dual%20Berettas%20%7C%20Balance%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/Sticker%20%7C%20DickStacy%20%28Foil%29%20%7C%20Berlin%202019</t>
+  </si>
+  <si>
+    <t>Dick Stacy Foil (Berlin)</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/AK-47%20%7C%20Redline%20%28Field-Tested%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/AK-47%20%7C%20Baroque%20Purple%20%28Factory%20New%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/StatTrak%E2%84%A2%20SSG%2008%20%7C%20Slashed%20%28Battle-Scarred%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/MP9%20%7C%20Stained%20Glass%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/Sticker%20%7C%20Web%20Stuck%20%28Holo%29</t>
+  </si>
+  <si>
+    <t>Bulk Style?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -128,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +168,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,16 +218,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -469,122 +509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CECA6F-12B3-499F-93A2-28F63E2E8B8A}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>-1.53</v>
-      </c>
-      <c r="D4">
-        <v>-3.03</v>
-      </c>
-      <c r="E4">
-        <v>-2.42</v>
-      </c>
-      <c r="F4">
-        <v>-0.54</v>
-      </c>
-      <c r="G4">
-        <f>-1.62*5</f>
-        <v>-8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>SUM(C7:K7)</f>
-        <v>-6.1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <f>C4+C6</f>
-        <v>-0.65</v>
-      </c>
-      <c r="D7">
-        <f>D4+D6</f>
-        <v>-3.03</v>
-      </c>
-      <c r="E7">
-        <f>E4+E6</f>
-        <v>-2.42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CECA6F-12B3-499F-93A2-28F63E2E8B8A}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
@@ -592,89 +529,76 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1">
-        <f>SUM(B4:B19)</f>
-        <v>21.37</v>
-      </c>
-      <c r="C2" s="1">
-        <f>SUM(C4:C19)</f>
-        <v>24.575499999999998</v>
-      </c>
       <c r="D2" s="1">
-        <f>SUM(D4:D19)</f>
-        <v>6.5600000000000005</v>
+        <f>SUM(D4:D20)</f>
+        <v>45.239999999999995</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(E4:E19)</f>
-        <v>1.6543478260869571</v>
-      </c>
-      <c r="F2" s="1">
-        <f>SUM(F4:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
+        <f>SUM(E4:E20)</f>
+        <v>52.02600000000001</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f>SUM(G4:G20)</f>
+        <v>11.800000000000002</v>
+      </c>
       <c r="H2" s="1">
-        <f>SUM(H4:H19)</f>
-        <v>-4.05</v>
+        <f>G2-D2</f>
+        <v>-33.439999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4*1.15</f>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.26</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.58</v>
       </c>
       <c r="E4" s="1">
-        <f>(D4/1.15)-B4</f>
-        <v>2.6086956521739146E-2</v>
+        <f t="shared" ref="E4:E20" si="0">D4*1.15</f>
+        <v>9.8669999999999991</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="1">
-        <f>F4/1.15</f>
-        <v>0</v>
+      <c r="G4" s="2">
+        <v>10.88</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-B4</f>
-        <v>-0.2</v>
+        <f t="shared" ref="H4:H20" si="1">G4-D4</f>
+        <v>2.3000000000000007</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -682,287 +606,496 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.2</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C13" si="0">B5*1.15</f>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="1">(D5/1.15)-B5</f>
-        <v>2.6086956521739146E-2</v>
-      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G10" si="2">F5/1.15</f>
-        <v>0</v>
+      <c r="G5" s="2">
+        <v>0.23</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H10" si="3">G5-B5</f>
-        <v>-0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6086956521739146E-2</v>
-      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G6" s="2">
+        <v>0.23</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6086956521739146E-2</v>
-      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G7" s="2">
+        <v>0.23</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6086956521739146E-2</v>
-      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G8" s="2">
+        <v>0.23</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8" si="4">G8-B8</f>
-        <v>-0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0.26</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6086956521739146E-2</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.2</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
         <v>2.85</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>3.2774999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4978260869565223</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>-2.85</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>8.58</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.8669999999999991</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>5.1059999999999999</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.4400000000000004</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
         <v>4.3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>4.9449999999999994</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2535000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20.28</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>23.321999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>-20.28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I20">
+    <sortCondition descending="1" ref="G4:G20"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://steamcommunity.com/market/listings/730/SCAR-20 %7C Torn %28Minimal Wear%29" xr:uid="{18FB32D4-A471-4ECC-B88E-FE157BB42E29}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://steamcommunity.com/market/listings/730/Nova %7C Plume %28Minimal Wear%29" xr:uid="{C1002D5B-13AA-45DA-A0D6-441849F22AFA}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://steamcommunity.com/market/listings/730/MP5-SD %7C Acid Wash %28Minimal Wear%29" xr:uid="{091DD26C-25EE-4415-B46A-4C0D76705DBD}"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://steamcommunity.com/market/listings/730/M249 %7C Warbird %28Minimal Wear%29" xr:uid="{B98A1BC6-5E9B-4436-89B4-2E063A103F4B}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://steamcommunity.com/market/listings/730/Dual Berettas %7C Balance %28Minimal Wear%29" xr:uid="{C54F6652-7F04-4A61-992D-5BA5CC76E0AF}"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://steamcommunity.com/market/listings/730/M249 %7C Warbird %28Minimal Wear%29" xr:uid="{9B1DA979-4522-4AA0-90E0-8B2C164B1644}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://steamcommunity.com/market/listings/730/Sticker %7C DickStacy %28Foil%29 %7C Berlin 2019" xr:uid="{75E7F204-7110-4018-8A0E-666B5DE7B4FF}"/>
+    <hyperlink ref="B4" r:id="rId8" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{A1978C71-48E9-4FA9-B9F1-001D88A6FE28}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{E83E3913-F793-44DF-811D-FA14B7CD4025}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{60124097-5F84-4B17-BCCB-2758F0862AD5}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://steamcommunity.com/market/listings/730/StatTrak%E2%84%A2 SSG 08 %7C Slashed %28Battle-Scarred%29" xr:uid="{A1A6A122-EA73-4191-89B0-C65E38D82EB1}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://steamcommunity.com/market/listings/730/MP9 %7C Stained Glass %28Minimal Wear%29" xr:uid="{7162FC71-755D-457B-B3E5-4ABCEBA7D030}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{D23B6634-8C0D-4A0E-938C-7F795C45F386}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{B75C2130-8066-4A2C-98F0-96BD27A8D3F8}"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{EE283AE5-90ED-4C94-9602-627E72AF3E35}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{F8C19CE7-B524-4149-B5B3-8902661B53EF}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{87804AAD-E240-4647-88B4-8D8B69FC12CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2458D1-AB09-42A0-B4D8-C19A20BD815C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04F79-96D5-4C70-91EE-5C722E8EDD39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Details</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>AK Redline FT</t>
+  </si>
+  <si>
+    <t>Play Skin / Investment</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +595,7 @@
         <v>8.58</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E20" si="0">D4*1.15</f>
+        <f t="shared" ref="E4:E21" si="0">D4*1.15</f>
         <v>9.8669999999999991</v>
       </c>
       <c r="F4" s="2"/>
@@ -597,7 +603,7 @@
         <v>10.88</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H20" si="1">G4-D4</f>
+        <f t="shared" ref="H4:H21" si="1">G4-D4</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="I4" t="s">
@@ -949,7 +955,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -975,7 +981,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1053,23 +1059,48 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10.86</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>12.488999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>13</v>
+      </c>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>-10.86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
@@ -1095,6 +1126,7 @@
     <hyperlink ref="B19" r:id="rId15" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{EE283AE5-90ED-4C94-9602-627E72AF3E35}"/>
     <hyperlink ref="B18" r:id="rId16" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{F8C19CE7-B524-4149-B5B3-8902661B53EF}"/>
     <hyperlink ref="B20" r:id="rId17" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{87804AAD-E240-4647-88B4-8D8B69FC12CF}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{0345B0B1-3C17-4E99-934E-8151D7811331}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04F79-96D5-4C70-91EE-5C722E8EDD39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9838197-3656-46B7-B38D-B7B268E66704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Details</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Play Skin / Investment</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/M4A4%20%7C%20Dark%20Blossom%20%28Factory%20New%29</t>
+  </si>
+  <si>
+    <t>M4a4 FN Dark Blossom</t>
+  </si>
+  <si>
+    <t>Steam Market</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CECA6F-12B3-499F-93A2-28F63E2E8B8A}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,13 +536,13 @@
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -553,16 +562,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f>SUM(D4:D20)</f>
         <v>45.239999999999995</v>
@@ -572,16 +584,16 @@
         <v>52.02600000000001</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <f>SUM(G4:G20)</f>
+      <c r="H2" s="1">
+        <f>SUM(H4:H20)</f>
         <v>11.800000000000002</v>
       </c>
-      <c r="H2" s="1">
-        <f>G2-D2</f>
+      <c r="I2" s="1">
+        <f>H2-D2</f>
         <v>-33.439999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -595,22 +607,22 @@
         <v>8.58</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E21" si="0">D4*1.15</f>
+        <f t="shared" ref="E4:E22" si="0">D4*1.15</f>
         <v>9.8669999999999991</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>10.88</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H21" si="1">G4-D4</f>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I22" si="1">H4-D4</f>
         <v>2.3000000000000007</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -628,18 +640,18 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -657,18 +669,18 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.23</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -686,18 +698,18 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.23</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -715,18 +727,18 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.23</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -746,16 +758,16 @@
       <c r="F9" s="2">
         <v>0.26</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1">
+      <c r="H9" s="2"/>
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>-0.2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -775,16 +787,16 @@
       <c r="F10" s="2">
         <v>0.26</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1">
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>-0.2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -804,16 +816,16 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1">
+      <c r="H11" s="2"/>
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>-2.85</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -833,16 +845,16 @@
       <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1">
+      <c r="H12" s="2"/>
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>-4.4400000000000004</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -862,16 +874,16 @@
       <c r="F13" s="2">
         <v>10</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1">
+      <c r="H13" s="2"/>
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>-4.3</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -891,16 +903,16 @@
       <c r="F14" s="2">
         <v>1.3</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1">
+      <c r="H14" s="2"/>
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>-1.0900000000000001</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -920,16 +932,16 @@
       <c r="F15" s="2">
         <v>30</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1">
+      <c r="H15" s="2"/>
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>-20.28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -949,13 +961,13 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1">
+      <c r="H16" s="2"/>
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -975,13 +987,13 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1">
+      <c r="H17" s="2"/>
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1001,13 +1013,13 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1">
+      <c r="H18" s="2"/>
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1027,13 +1039,13 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1">
+      <c r="H19" s="2"/>
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1053,13 +1065,13 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1">
+      <c r="H20" s="2"/>
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1079,34 +1091,57 @@
       <c r="F21" s="2">
         <v>13</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1">
+      <c r="H21" s="2"/>
+      <c r="I21" s="1">
         <f t="shared" si="1"/>
         <v>-10.86</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93149999999999999</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I20">
-    <sortCondition descending="1" ref="G4:G20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J20">
+    <sortCondition descending="1" ref="H4:H20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" display="https://steamcommunity.com/market/listings/730/SCAR-20 %7C Torn %28Minimal Wear%29" xr:uid="{18FB32D4-A471-4ECC-B88E-FE157BB42E29}"/>
@@ -1127,6 +1162,7 @@
     <hyperlink ref="B18" r:id="rId16" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{F8C19CE7-B524-4149-B5B3-8902661B53EF}"/>
     <hyperlink ref="B20" r:id="rId17" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{87804AAD-E240-4647-88B4-8D8B69FC12CF}"/>
     <hyperlink ref="B21" r:id="rId18" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{0345B0B1-3C17-4E99-934E-8151D7811331}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://steamcommunity.com/market/listings/730/M4A4 %7C Dark Blossom %28Factory New%29" xr:uid="{AE0F4518-9C01-4ADB-84A3-EB5A02730528}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web Sc/Inventory.xlsx
+++ b/Web Sc/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9838197-3656-46B7-B38D-B7B268E66704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00682697-8F41-40BA-BD8A-D635BB5BFABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Details</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>Steam Market</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/M4A1-S%20%7C%20Flashback%20%28Minimal%20Wear%29</t>
+  </si>
+  <si>
+    <t>M4a1s Flashback 0.099</t>
+  </si>
+  <si>
+    <t>M4a1s Flashback 0.12</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/market/listings/730/SG%20553%20%7C%20Darkwing%20%28Well-Worn%29</t>
+  </si>
+  <si>
+    <t>Sg558 Darkwing</t>
   </si>
 </sst>
 </file>
@@ -525,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CECA6F-12B3-499F-93A2-28F63E2E8B8A}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,21 +591,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
-        <f>SUM(D4:D20)</f>
-        <v>45.239999999999995</v>
+        <f>SUM(D4:D21)</f>
+        <v>48.089999999999996</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(E4:E20)</f>
-        <v>52.02600000000001</v>
+        <f>SUM(E4:E21)</f>
+        <v>55.303500000000014</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1">
-        <f>SUM(H4:H20)</f>
-        <v>11.800000000000002</v>
+        <f>SUM(H4:H21)</f>
+        <v>14.280000000000003</v>
       </c>
       <c r="I2" s="1">
         <f>H2-D2</f>
-        <v>-33.439999999999991</v>
+        <v>-33.809999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,7 +622,7 @@
         <v>8.58</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E22" si="0">D4*1.15</f>
+        <f t="shared" ref="E4:E25" si="0">D4*1.15</f>
         <v>9.8669999999999991</v>
       </c>
       <c r="F4" s="2"/>
@@ -615,7 +630,7 @@
         <v>10.88</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I22" si="1">H4-D4</f>
+        <f t="shared" ref="I4:I25" si="1">H4-D4</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="J4" t="s">
@@ -743,28 +758,25 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2</v>
+        <v>2.85</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>3.2774999999999999</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2">
+        <v>2.48</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-0.2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
+        <v>-0.37000000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -772,10 +784,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>0.2</v>
@@ -798,60 +810,60 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>2.85</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>3.2774999999999999</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>0.26</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>-2.85</v>
+        <v>-0.2</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>4.4400000000000004</v>
+        <v>2.85</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>5.1059999999999999</v>
+        <v>3.2774999999999999</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>-4.4400000000000004</v>
+        <v>-2.85</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,14 +874,14 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>4.3</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4.9449999999999994</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -877,7 +889,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>-4.3</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -888,28 +900,28 @@
         <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0900000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>1.2535000000000001</v>
+        <v>4.9449999999999994</v>
       </c>
       <c r="F14" s="2">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0900000000000001</v>
+        <v>-4.3</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -917,54 +929,57 @@
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>20.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>23.321999999999999</v>
+        <v>1.2535000000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>30</v>
+        <v>1.3</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>-20.28</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
-        <v>0.5</v>
+        <v>20.28</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>23.321999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <v>-20.28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,31 +1088,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>10.86</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>12.488999999999999</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="F21" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>-10.86</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,64 +1117,140 @@
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
-        <v>0.81</v>
+        <v>10.86</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>0.93149999999999999</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>12.488999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>13</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.81</v>
+        <v>-10.86</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="H23" s="2"/>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2765</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.6</v>
+      </c>
       <c r="H24" s="2"/>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.1100000000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.6</v>
+      </c>
       <c r="H25" s="2"/>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J20">
-    <sortCondition descending="1" ref="H4:H20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J21">
+    <sortCondition descending="1" ref="H4:H21"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://steamcommunity.com/market/listings/730/SCAR-20 %7C Torn %28Minimal Wear%29" xr:uid="{18FB32D4-A471-4ECC-B88E-FE157BB42E29}"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://steamcommunity.com/market/listings/730/SCAR-20 %7C Torn %28Minimal Wear%29" xr:uid="{18FB32D4-A471-4ECC-B88E-FE157BB42E29}"/>
     <hyperlink ref="B5" r:id="rId2" display="https://steamcommunity.com/market/listings/730/Nova %7C Plume %28Minimal Wear%29" xr:uid="{C1002D5B-13AA-45DA-A0D6-441849F22AFA}"/>
     <hyperlink ref="B6" r:id="rId3" display="https://steamcommunity.com/market/listings/730/MP5-SD %7C Acid Wash %28Minimal Wear%29" xr:uid="{091DD26C-25EE-4415-B46A-4C0D76705DBD}"/>
     <hyperlink ref="B8" r:id="rId4" display="https://steamcommunity.com/market/listings/730/M249 %7C Warbird %28Minimal Wear%29" xr:uid="{B98A1BC6-5E9B-4436-89B4-2E063A103F4B}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://steamcommunity.com/market/listings/730/Dual Berettas %7C Balance %28Minimal Wear%29" xr:uid="{C54F6652-7F04-4A61-992D-5BA5CC76E0AF}"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://steamcommunity.com/market/listings/730/M249 %7C Warbird %28Minimal Wear%29" xr:uid="{9B1DA979-4522-4AA0-90E0-8B2C164B1644}"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://steamcommunity.com/market/listings/730/Sticker %7C DickStacy %28Foil%29 %7C Berlin 2019" xr:uid="{75E7F204-7110-4018-8A0E-666B5DE7B4FF}"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://steamcommunity.com/market/listings/730/M249 %7C Warbird %28Minimal Wear%29" xr:uid="{9B1DA979-4522-4AA0-90E0-8B2C164B1644}"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://steamcommunity.com/market/listings/730/Sticker %7C DickStacy %28Foil%29 %7C Berlin 2019" xr:uid="{75E7F204-7110-4018-8A0E-666B5DE7B4FF}"/>
     <hyperlink ref="B4" r:id="rId8" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{A1978C71-48E9-4FA9-B9F1-001D88A6FE28}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{E83E3913-F793-44DF-811D-FA14B7CD4025}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{60124097-5F84-4B17-BCCB-2758F0862AD5}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://steamcommunity.com/market/listings/730/StatTrak%E2%84%A2 SSG 08 %7C Slashed %28Battle-Scarred%29" xr:uid="{A1A6A122-EA73-4191-89B0-C65E38D82EB1}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://steamcommunity.com/market/listings/730/MP9 %7C Stained Glass %28Minimal Wear%29" xr:uid="{7162FC71-755D-457B-B3E5-4ABCEBA7D030}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{D23B6634-8C0D-4A0E-938C-7F795C45F386}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{B75C2130-8066-4A2C-98F0-96BD27A8D3F8}"/>
-    <hyperlink ref="B19" r:id="rId15" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{EE283AE5-90ED-4C94-9602-627E72AF3E35}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{F8C19CE7-B524-4149-B5B3-8902661B53EF}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{87804AAD-E240-4647-88B4-8D8B69FC12CF}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{0345B0B1-3C17-4E99-934E-8151D7811331}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://steamcommunity.com/market/listings/730/M4A4 %7C Dark Blossom %28Factory New%29" xr:uid="{AE0F4518-9C01-4ADB-84A3-EB5A02730528}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{E83E3913-F793-44DF-811D-FA14B7CD4025}"/>
+    <hyperlink ref="B14" r:id="rId10" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Baroque Purple %28Factory New%29" xr:uid="{60124097-5F84-4B17-BCCB-2758F0862AD5}"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://steamcommunity.com/market/listings/730/StatTrak%E2%84%A2 SSG 08 %7C Slashed %28Battle-Scarred%29" xr:uid="{A1A6A122-EA73-4191-89B0-C65E38D82EB1}"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://steamcommunity.com/market/listings/730/MP9 %7C Stained Glass %28Minimal Wear%29" xr:uid="{7162FC71-755D-457B-B3E5-4ABCEBA7D030}"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{D23B6634-8C0D-4A0E-938C-7F795C45F386}"/>
+    <hyperlink ref="B18" r:id="rId14" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{B75C2130-8066-4A2C-98F0-96BD27A8D3F8}"/>
+    <hyperlink ref="B20" r:id="rId15" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{EE283AE5-90ED-4C94-9602-627E72AF3E35}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{F8C19CE7-B524-4149-B5B3-8902661B53EF}"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://steamcommunity.com/market/listings/730/Sticker %7C Web Stuck %28Holo%29" xr:uid="{87804AAD-E240-4647-88B4-8D8B69FC12CF}"/>
+    <hyperlink ref="B22" r:id="rId18" display="https://steamcommunity.com/market/listings/730/AK-47 %7C Redline %28Field-Tested%29" xr:uid="{0345B0B1-3C17-4E99-934E-8151D7811331}"/>
+    <hyperlink ref="B23" r:id="rId19" display="https://steamcommunity.com/market/listings/730/M4A4 %7C Dark Blossom %28Factory New%29" xr:uid="{AE0F4518-9C01-4ADB-84A3-EB5A02730528}"/>
+    <hyperlink ref="B9" r:id="rId20" display="https://steamcommunity.com/market/listings/730/SG 553 %7C Darkwing %28Well-Worn%29" xr:uid="{1D752B87-13A7-48D6-89A8-7475664FAD7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
